--- a/ValueSet-study-personnel-role.xlsx
+++ b/ValueSet-study-personnel-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T21:24:01+00:00</t>
+    <t>2023-11-17T22:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
